--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emre Duman\Desktop\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C0194E-5BD1-4EA4-A731-C1A7BFA59A57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6D319B-16DE-470E-88C4-F8EED7AD9CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>adçkcsvcksk</t>
+    <t>adçkckefsalfrwfşrwabvşrwsvjyrfyrwgfsk</t>
   </si>
 </sst>
 </file>
